--- a/GameData/Excel/content_stage.xlsx
+++ b/GameData/Excel/content_stage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C5DADB-96B1-4CB7-9F02-B24469D59742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AD363B-2781-4CE6-A57C-67B5021D22FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11304" yWindow="13860" windowWidth="20328" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="11310" yWindow="13860" windowWidth="20325" windowHeight="12720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="content_stage" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>int</t>
   </si>
@@ -40,10 +40,6 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>test맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stage_id</t>
   </si>
   <si>
@@ -77,6 +73,58 @@
   </si>
   <si>
     <t>메모</t>
+  </si>
+  <si>
+    <t>1차_테스트_1막_1장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차_테스트_1막_2장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차_테스트_1막_3장_엘리트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차_테스트_1막_4장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차_테스트_1막_5장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차_테스트_1막_6장_보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test맵_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test맵_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test맵_엘리트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test맵_보스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -218,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -364,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,68 +562,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.8984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="28.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="10" style="8" customWidth="1"/>
     <col min="5" max="5" width="28.5" style="8" customWidth="1"/>
     <col min="6" max="6" width="10" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="3"/>
+    <col min="7" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="39.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>3</v>
@@ -590,91 +638,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1000101</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1000201</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>10103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1010301</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1000401</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1000501</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>10206</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1020601</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8">
+        <v>101</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8">
         <v>101</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8">
+        <v>101</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
